--- a/Desafio Deshboard.xlsx
+++ b/Desafio Deshboard.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Dio\Execel\Curso Excel IA\Desafios\Desafio Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="10800" tabRatio="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="10800" tabRatio="0" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="assests" sheetId="6" r:id="rId1"/>
-    <sheet name="Caculos" sheetId="11" r:id="rId2"/>
+    <sheet name="assests" sheetId="6" state="hidden" r:id="rId1"/>
+    <sheet name="Caculos" sheetId="11" state="hidden" r:id="rId2"/>
     <sheet name="Lancamento" sheetId="5" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="7" r:id="rId4"/>
     <sheet name="Cálculos" sheetId="2" state="hidden" r:id="rId5"/>
@@ -30,13 +30,13 @@
     <definedName name="ListaForma">Forma[Forma]</definedName>
     <definedName name="ListaLancamento">assests!$A$23:$A$92</definedName>
     <definedName name="ListaTipo">Tipo[Tipo]</definedName>
-    <definedName name="SegmentaçãodeDados_Banco">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Fluxo">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Fluxo1">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Forma">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="83">
   <si>
     <t>Salário</t>
   </si>
@@ -241,21 +241,6 @@
     <t>Débito</t>
   </si>
   <si>
-    <t>Itáu</t>
-  </si>
-  <si>
-    <t>Bradesco</t>
-  </si>
-  <si>
-    <t>Caixa Econômica</t>
-  </si>
-  <si>
-    <t>Banco do Brasil</t>
-  </si>
-  <si>
-    <t>Nubank</t>
-  </si>
-  <si>
     <t>Depósito</t>
   </si>
   <si>
@@ -361,6 +346,27 @@
   </si>
   <si>
     <t>Lançamentos Financeiros</t>
+  </si>
+  <si>
+    <t>Banco1</t>
+  </si>
+  <si>
+    <t>Banco2</t>
+  </si>
+  <si>
+    <t>Banco3</t>
+  </si>
+  <si>
+    <t>Banco4</t>
+  </si>
+  <si>
+    <t>Banco5</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>(vazio)</t>
   </si>
 </sst>
 </file>
@@ -514,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -530,7 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -639,6 +644,7 @@
   <colors>
     <mruColors>
       <color rgb="FFF1BBBB"/>
+      <color rgb="FFDC5252"/>
       <color rgb="FFCC00FF"/>
       <color rgb="FFCC66FF"/>
       <color rgb="FFCC99FF"/>
@@ -1785,11 +1791,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="667543984"/>
-        <c:axId val="667533400"/>
+        <c:axId val="929934496"/>
+        <c:axId val="929941552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="667543984"/>
+        <c:axId val="929934496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1835,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667533400"/>
+        <c:crossAx val="929941552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1837,7 +1843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="667533400"/>
+        <c:axId val="929941552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1853,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="667543984"/>
+        <c:crossAx val="929934496"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2805,6 +2811,41 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -2921,6 +2962,42 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -3184,9 +3261,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Caculos!$B$15:$B$20</c:f>
+              <c:f>Caculos!$B$15:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Boleto</c:v>
                 </c:pt>
@@ -3202,15 +3279,18 @@
                 <c:pt idx="4">
                   <c:v>Pix</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>(vazio)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Caculos!$C$15:$C$20</c:f>
+              <c:f>Caculos!$C$15:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1499.97</c:v>
                 </c:pt>
@@ -3760,6 +3840,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3775,7 +3856,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -3799,7 +3880,9 @@
           <c:showBubbleSize val="0"/>
           <c:separator> </c:separator>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3860,9 +3943,7 @@
           <c:showBubbleSize val="0"/>
           <c:separator> </c:separator>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3921,9 +4002,7 @@
           <c:showBubbleSize val="0"/>
           <c:separator> </c:separator>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3974,12 +4053,15 @@
                     </a:solidFill>
                   </a:rPr>
                   <a:pPr>
-                    <a:defRPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="accent6">
                           <a:lumMod val="75000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
                   <a:t>[VALOR]</a:t>
@@ -4027,7 +4109,6 @@
           <c:separator> </c:separator>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
               <c15:dlblFieldTable/>
               <c15:showDataLabelsRange val="0"/>
             </c:ext>
@@ -4080,7 +4161,17 @@
                     </a:solidFill>
                   </a:rPr>
                   <a:pPr>
-                    <a:defRPr/>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
                   </a:pPr>
                   <a:t>[VALOR]</a:t>
                 </a:fld>
@@ -4128,9 +4219,98 @@
           <c:separator> </c:separator>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
               <c15:dlblFieldTable/>
               <c15:showDataLabelsRange val="0"/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="F1BBBB"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="F1BBBB"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="9.404001114420299E-2"/>
+              <c:y val="0"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -4182,7 +4362,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="F1BBBB"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4196,7 +4376,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="F1BBBB"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4210,7 +4390,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4222,54 +4404,16 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.39672236661089771"/>
-                  <c:y val="4.6296296296297994E-3"/>
+                  <c:x val="9.404001114420299E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4281,192 +4425,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.25832145229765296"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="C00000"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.37440213334610961"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent6">
-                            <a:lumMod val="75000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:fld id="{DAA9F78F-DE02-4ACE-92FD-C5C231BA7059}" type="VALUE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:schemeClr val="accent6">
-                            <a:lumMod val="75000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr>
-                        <a:defRPr>
-                          <a:solidFill>
-                            <a:schemeClr val="accent6">
-                              <a:lumMod val="75000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:t>[VALOR]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="pt-BR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.27490078884370617"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BF9BC3E6-D552-4A30-AE79-B2BAA8F4C0D6}" type="VALUE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALOR]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="pt-BR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4485,7 +4443,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4511,6 +4469,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4531,9 +4490,20 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Caculos!$B$25:$B$31</c:f>
+              <c:f>Caculos!$B$25:$B$30</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Santander</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Santander</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Banco1</c:v>
+                  </c:pt>
+                </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Entrada</c:v>
@@ -4541,41 +4511,24 @@
                   <c:pt idx="1">
                     <c:v>Saída</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Entrada</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Saída</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Caixa Econômica</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Nubank</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Caculos!$C$25:$C$31</c:f>
+              <c:f>Caculos!$C$25:$C$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9000</c:v>
+                  <c:v>10600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4929.9799999999996</c:v>
+                  <c:v>5709.869999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1059.79</c:v>
+                  <c:v>279.89999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4591,11 +4544,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="667534968"/>
-        <c:axId val="667543592"/>
+        <c:axId val="929932928"/>
+        <c:axId val="929933320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="667534968"/>
+        <c:axId val="929932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,7 +4591,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667543592"/>
+        <c:crossAx val="929933320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4646,17 +4599,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="667543592"/>
+        <c:axId val="929933320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="667534968"/>
+        <c:crossAx val="929932928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6319,6 +6272,83 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Fluxo 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Fluxo 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6019800" y="2552700"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -6446,8 +6476,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2260599" y="561975"/>
-          <a:ext cx="7622117" cy="1164167"/>
+          <a:off x="2257424" y="561975"/>
+          <a:ext cx="7562850" cy="1162050"/>
           <a:chOff x="2752724" y="561975"/>
           <a:chExt cx="7562850" cy="1162050"/>
         </a:xfrm>
@@ -6895,8 +6925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2607733" y="2621491"/>
-          <a:ext cx="1094316" cy="609600"/>
+          <a:off x="2600325" y="2619374"/>
+          <a:ext cx="1085849" cy="609600"/>
           <a:chOff x="2733675" y="2362199"/>
           <a:chExt cx="1085849" cy="609600"/>
         </a:xfrm>
@@ -7237,8 +7267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2260599" y="5383741"/>
-          <a:ext cx="3685118" cy="3286126"/>
+          <a:off x="2257424" y="5381624"/>
+          <a:ext cx="3657601" cy="3286126"/>
           <a:chOff x="2257424" y="5381624"/>
           <a:chExt cx="3752851" cy="2967037"/>
         </a:xfrm>
@@ -7312,18 +7342,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:colOff>62705</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1890712</xdr:colOff>
+      <xdr:colOff>1891505</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>133348</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="24" name="Forma"/>
@@ -7342,7 +7372,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7352,7 +7382,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="61912" y="3183465"/>
+              <a:off x="62705" y="3183465"/>
               <a:ext cx="1828800" cy="1733550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7403,8 +7433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6050493" y="5374217"/>
-          <a:ext cx="3832224" cy="2895600"/>
+          <a:off x="6019801" y="5372100"/>
+          <a:ext cx="3800474" cy="2895600"/>
           <a:chOff x="6019801" y="5372100"/>
           <a:chExt cx="3848100" cy="2895600"/>
         </a:xfrm>
@@ -7478,21 +7508,21 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>172507</xdr:rowOff>
+      <xdr:colOff>62705</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1890712</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>67732</xdr:rowOff>
+      <xdr:colOff>1891505</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="32" name="Banco"/>
+            <xdr:cNvPr id="33" name="Fluxo"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -7501,12 +7531,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Banco"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Fluxo"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7516,8 +7546,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="61912" y="4956174"/>
-              <a:ext cx="1828800" cy="1038225"/>
+              <a:off x="62705" y="2164292"/>
+              <a:ext cx="1828800" cy="978958"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7547,24 +7577,24 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>62705</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1890712</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:colOff>1891505</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="33" name="Fluxo"/>
+            <xdr:cNvPr id="34" name="Fluxo 2"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -7573,12 +7603,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Fluxo"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Fluxo 2"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7588,8 +7618,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="61912" y="2164292"/>
-              <a:ext cx="1828800" cy="978958"/>
+              <a:off x="62705" y="4963586"/>
+              <a:ext cx="1828800" cy="941914"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7623,13 +7653,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="William" refreshedDate="45824.835674884256" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="19">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="William" refreshedDate="45831.475746412034" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="98">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela3"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Lançamentos" numFmtId="0">
-      <sharedItems count="8">
+      <sharedItems containsBlank="1" count="9">
         <s v="Salário"/>
         <s v="Aluguel"/>
         <s v="Carro"/>
@@ -7638,50 +7668,55 @@
         <s v="Educação"/>
         <s v="Outros"/>
         <s v="Mercado"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Remetente" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="valor" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="79.900000000000006" maxValue="3000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="79.900000000000006" maxValue="3000"/>
     </cacheField>
     <cacheField name="Fluxo" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems containsBlank="1" count="3">
         <s v="Entrada"/>
         <s v="Saída"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Tipo" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Receita"/>
-        <s v="Despesas"/>
-        <s v="Investimento"/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Forma" numFmtId="0">
-      <sharedItems count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="Pix"/>
         <s v="Depósito"/>
         <s v="Boleto"/>
         <s v="Crédito"/>
         <s v="Dinheiro"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-01-10T00:00:00" maxDate="2025-04-16T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-10T00:00:00" maxDate="2025-04-16T00:00:00"/>
     </cacheField>
     <cacheField name="Banco" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Caixa Econômica"/>
-        <s v="Nubank"/>
+      <sharedItems containsBlank="1" count="8">
+        <s v="Santander"/>
+        <s v="Banco1"/>
+        <m/>
+        <s v="Banco5" u="1"/>
+        <s v="Nubank" u="1"/>
+        <s v="Caixa Econômica" u="1"/>
+        <s v="Banco3" u="1"/>
+        <s v="Banco4" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N_agência" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Co.Corrente" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -7693,13 +7728,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="19">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="98">
   <r>
     <x v="0"/>
     <s v="Boletos S.A"/>
     <n v="3000"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Receita"/>
     <x v="0"/>
     <d v="2025-01-10T00:00:00"/>
     <x v="0"/>
@@ -7711,7 +7746,7 @@
     <s v="Moradia LTDA"/>
     <n v="850"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="1"/>
     <d v="2025-01-11T00:00:00"/>
     <x v="0"/>
@@ -7723,7 +7758,7 @@
     <s v="Sem Bus ERP"/>
     <n v="600"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="2"/>
     <d v="2025-01-11T00:00:00"/>
     <x v="0"/>
@@ -7735,7 +7770,7 @@
     <s v="Tesouro Direto"/>
     <n v="200"/>
     <x v="1"/>
-    <x v="2"/>
+    <s v="Investimento"/>
     <x v="0"/>
     <d v="2025-01-11T00:00:00"/>
     <x v="1"/>
@@ -7747,7 +7782,7 @@
     <s v="Ping 999 EIRELI"/>
     <n v="99.99"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="2"/>
     <d v="2025-01-12T00:00:00"/>
     <x v="0"/>
@@ -7759,7 +7794,7 @@
     <s v="Dio.me"/>
     <n v="79.900000000000006"/>
     <x v="1"/>
-    <x v="2"/>
+    <s v="Investimento"/>
     <x v="3"/>
     <d v="2025-02-15T00:00:00"/>
     <x v="1"/>
@@ -7771,10 +7806,10 @@
     <s v="Freela EPP"/>
     <n v="800"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Receita"/>
     <x v="4"/>
     <d v="2025-02-16T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="53254-1"/>
     <s v="252545-3"/>
   </r>
@@ -7783,7 +7818,7 @@
     <s v="Boletos S.A"/>
     <n v="3000"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Receita"/>
     <x v="0"/>
     <d v="2025-02-10T00:00:00"/>
     <x v="0"/>
@@ -7795,7 +7830,7 @@
     <s v="Moradia LTDA"/>
     <n v="850"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="1"/>
     <d v="2025-02-11T00:00:00"/>
     <x v="0"/>
@@ -7807,7 +7842,7 @@
     <s v="Sem Bus ERP"/>
     <n v="600"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="2"/>
     <d v="2025-02-11T00:00:00"/>
     <x v="0"/>
@@ -7819,10 +7854,10 @@
     <s v="Tesouro Direto"/>
     <n v="200"/>
     <x v="1"/>
-    <x v="2"/>
+    <s v="Investimento"/>
     <x v="0"/>
     <d v="2025-03-11T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="53254-0"/>
     <s v="252545-2"/>
   </r>
@@ -7831,7 +7866,7 @@
     <s v="Ping 999 EIRELI"/>
     <n v="99.99"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="2"/>
     <d v="2025-03-12T00:00:00"/>
     <x v="0"/>
@@ -7843,10 +7878,10 @@
     <s v="Dio.me"/>
     <n v="79.900000000000006"/>
     <x v="1"/>
-    <x v="2"/>
+    <s v="Investimento"/>
     <x v="3"/>
     <d v="2025-03-15T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="53254-0"/>
     <s v="252545-2"/>
   </r>
@@ -7855,10 +7890,10 @@
     <s v="Freela EPP"/>
     <n v="800"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Receita"/>
     <x v="4"/>
     <d v="2025-03-16T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="53254-1"/>
     <s v="252545-3"/>
   </r>
@@ -7867,7 +7902,7 @@
     <s v="Tudo Caro LTDA"/>
     <n v="980"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="3"/>
     <d v="2025-03-20T00:00:00"/>
     <x v="0"/>
@@ -7879,7 +7914,7 @@
     <s v="Boletos S.A"/>
     <n v="3000"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="1"/>
     <d v="2025-04-05T00:00:00"/>
     <x v="0"/>
@@ -7891,7 +7926,7 @@
     <s v="Moradia LTDA"/>
     <n v="850"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="0"/>
     <d v="2025-04-06T00:00:00"/>
     <x v="0"/>
@@ -7903,10 +7938,10 @@
     <s v="Uberlito AS"/>
     <n v="400"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="4"/>
     <d v="2025-04-10T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="53254-1"/>
     <s v="252545-3"/>
   </r>
@@ -7915,22 +7950,970 @@
     <s v="Ping 999 EIRELI"/>
     <n v="99.99"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Despesas"/>
     <x v="2"/>
     <d v="2025-04-15T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="53254-2"/>
     <s v="252545-4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" chartFormat="4" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" chartFormat="4" fieldListSortAscending="1">
   <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
-      <items count="9">
+      <items count="10">
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -7939,29 +8922,22 @@
         <item x="7"/>
         <item x="6"/>
         <item x="0"/>
+        <item h="1" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -8098,16 +9074,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="B24:C31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="B24:C30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8115,9 +9092,15 @@
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="9">
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="0"/>
         <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="3"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8125,27 +9108,24 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="2">
+    <field x="3"/>
     <field x="7"/>
-    <field x="3"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -8155,9 +9135,9 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de valor" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Soma de valor" fld="2" baseField="3" baseItem="2" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="4">
     <chartFormat chart="12" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8167,7 +9147,22 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="12" format="6">
+    <chartFormat chart="12" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -8177,12 +9172,12 @@
             <x v="0"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="12" format="7">
+    <chartFormat chart="12" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -8192,37 +9187,7 @@
             <x v="1"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -8238,8 +9203,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
-  <location ref="B14:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
+  <location ref="B14:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -8247,12 +9212,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
         <item x="4"/>
         <item x="0"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8264,7 +9230,7 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -8280,6 +9246,9 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8290,7 +9259,7 @@
   <dataFields count="1">
     <dataField name="Soma de valor" fld="2" baseField="5" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="7">
     <chartFormat chart="2" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8360,6 +9329,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -8377,55 +9358,79 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="5">
+      <items count="6">
         <i x="2" s="1"/>
         <i x="3" s="1"/>
         <i x="1" s="1"/>
         <i x="4" s="1"/>
         <i x="0" s="1"/>
+        <i x="5" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Banco" sourceName="Banco">
-  <pivotTables>
-    <pivotTable tabId="11" name="Tabela dinâmica3"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="2">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Fluxo" sourceName="Fluxo">
   <pivotTables>
     <pivotTable tabId="11" name="Tabela dinâmica1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="2">
+      <items count="3">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
+        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Fluxo1" sourceName="Fluxo">
+  <pivotTables>
+    <pivotTable tabId="11" name="Tabela dinâmica3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Fluxo 1" cache="SegmentaçãodeDados_Fluxo1" caption="Fluxo" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Forma" cache="SegmentaçãodeDados_Forma" caption="Forma de pagmento" rowHeight="241300"/>
-  <slicer name="Banco" cache="SegmentaçãodeDados_Banco" caption="Transações Bancárias" rowHeight="241300"/>
   <slicer name="Fluxo" cache="SegmentaçãodeDados_Fluxo" caption="Fluxo de caixa" rowHeight="241300"/>
+  <slicer name="Fluxo 2" cache="SegmentaçãodeDados_Fluxo1" caption="Transações Bancárias" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -8470,8 +9475,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Banco" displayName="Banco" ref="I1:I6" totalsRowShown="0">
-  <autoFilter ref="I1:I6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Banco" displayName="Banco" ref="I1:I7" totalsRowShown="0">
+  <autoFilter ref="I1:I7"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Banco"/>
   </tableColumns>
@@ -8797,7 +9802,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B24" sqref="B24:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8840,7 +9845,7 @@
         <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8857,7 +9862,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8868,10 +9873,10 @@
         <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8882,7 +9887,7 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8893,7 +9898,7 @@
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8901,7 +9906,10 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8938,7 +9946,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
@@ -8967,12 +9975,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -8980,19 +9988,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A24" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" s="20" customFormat="1" ht="18.75">
-      <c r="A32" s="16" t="s">
-        <v>78</v>
+    <row r="24" spans="1:1" s="16" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="19" customFormat="1" ht="18.75">
+      <c r="A32" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
-      <c r="A33" s="18" t="s">
-        <v>79</v>
+      <c r="A33" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -9011,10 +10019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C31"/>
+  <dimension ref="B2:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B24" sqref="B24:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9027,10 +10035,10 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -9051,7 +10059,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3">
         <v>400</v>
@@ -9099,7 +10107,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3">
         <v>16589.77</v>
@@ -9107,15 +10115,15 @@
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3">
         <v>1499.97</v>
@@ -9131,7 +10139,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3">
         <v>4700</v>
@@ -9155,79 +10163,85 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="3">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3">
         <v>16589.77</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="13">
-        <v>13929.98</v>
+        <v>33</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10600</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="13">
-        <v>9000</v>
+      <c r="B26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10600</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="13">
-        <v>4929.9799999999996</v>
+      <c r="C27" s="3">
+        <v>5989.7699999999986</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="13">
-        <v>2659.79</v>
+      <c r="B28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5709.869999999999</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1600</v>
+      <c r="B29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3">
+        <v>279.89999999999998</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="13">
-        <v>1059.79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3">
         <v>16589.77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId6"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9236,7 +10250,7 @@
   <dimension ref="B2:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9254,18 +10268,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18" thickBot="1">
-      <c r="B2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="2:11" ht="5.25" customHeight="1"/>
     <row r="4" spans="2:11">
@@ -9323,13 +10337,13 @@
         <v>45667</v>
       </c>
       <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -9337,7 +10351,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5">
         <v>850</v>
@@ -9349,19 +10363,19 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H6" s="4">
         <v>45668</v>
       </c>
       <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
         <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -9369,7 +10383,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3">
         <v>600</v>
@@ -9381,27 +10395,27 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H7" s="4">
         <v>45668</v>
       </c>
       <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
         <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
@@ -9419,13 +10433,13 @@
         <v>45668</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -9433,7 +10447,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3">
         <v>99.99</v>
@@ -9445,19 +10459,19 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4">
         <v>45669</v>
       </c>
       <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
         <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -9465,7 +10479,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3">
         <v>79.900000000000006</v>
@@ -9483,13 +10497,13 @@
         <v>45703</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -9497,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3">
         <v>800</v>
@@ -9515,13 +10529,13 @@
         <v>45704</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -9547,13 +10561,13 @@
         <v>45698</v>
       </c>
       <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
         <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -9561,7 +10575,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5">
         <v>850</v>
@@ -9573,19 +10587,19 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H13" s="4">
         <v>45699</v>
       </c>
       <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
         <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -9593,7 +10607,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3">
         <v>600</v>
@@ -9605,27 +10619,27 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H14" s="4">
         <v>45699</v>
       </c>
       <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
         <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3">
         <v>200</v>
@@ -9643,13 +10657,13 @@
         <v>45727</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -9657,7 +10671,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3">
         <v>99.99</v>
@@ -9669,19 +10683,19 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H16" s="4">
         <v>45728</v>
       </c>
       <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
         <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -9689,7 +10703,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3">
         <v>79.900000000000006</v>
@@ -9707,13 +10721,13 @@
         <v>45731</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -9721,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3">
         <v>800</v>
@@ -9739,13 +10753,13 @@
         <v>45732</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -9753,7 +10767,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D19" s="3">
         <v>980</v>
@@ -9771,13 +10785,13 @@
         <v>45736</v>
       </c>
       <c r="I19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s">
         <v>46</v>
-      </c>
-      <c r="J19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -9797,19 +10811,19 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H20" s="4">
         <v>45752</v>
       </c>
       <c r="I20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
         <v>46</v>
-      </c>
-      <c r="J20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -9817,7 +10831,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3">
         <v>850</v>
@@ -9835,13 +10849,13 @@
         <v>45753</v>
       </c>
       <c r="I21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
         <v>46</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -9849,7 +10863,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3">
         <v>400</v>
@@ -9867,13 +10881,13 @@
         <v>45757</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -9881,7 +10895,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3">
         <v>99.99</v>
@@ -9893,19 +10907,19 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H23" s="4">
         <v>45762</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -10183,28 +11197,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P8"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="1.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="C2" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -10235,7 +11253,7 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f>SUMIF(Lancamento!E:E,"Saída",Lancamento!D:D)</f>
         <v>5989.77</v>
       </c>
@@ -10247,8 +11265,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5">
-      <c r="A8" s="21" t="s">
-        <v>57</v>
+      <c r="A8" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="B8" s="5"/>
     </row>
